--- a/docs/fs_tables_schema.xlsx
+++ b/docs/fs_tables_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jozef\Documents\GitHub\FS_LaraStats\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E06F9B-A5DE-41A3-9D44-380E1C7D9687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DDCC89-100F-4BA6-9C96-3B4DA3433CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14970" yWindow="2085" windowWidth="33465" windowHeight="21600" xr2:uid="{155BEB97-3083-468D-A815-7C7D0C7DF90D}"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="33465" windowHeight="21600" xr2:uid="{155BEB97-3083-468D-A815-7C7D0C7DF90D}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
